--- a/classfiers/chain/MLP/chain-mlp-results.xlsx
+++ b/classfiers/chain/MLP/chain-mlp-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9826839826839827</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9891304347826088</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4444444444444444</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846153</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7132459970887919</v>
+        <v>0.736231884057971</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6521106259097526</v>
+        <v>0.9942028985507246</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2888888888888889</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3230769230769231</v>
+        <v>0.2727272727272728</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8730713245997089</v>
+        <v>0.9404498400150574</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/MLP/chain-mlp-results.xlsx
+++ b/classfiers/chain/MLP/chain-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9826839826839827</v>
+        <v>0.9957692307692307</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9891304347826088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9798994974874372</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>0.736231884057971</v>
+        <v>0.6058333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9942028985507246</v>
+        <v>0.9970833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.5990566037735849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3</v>
+        <v>0.341025641025641</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2727272727272728</v>
+        <v>0.300636618283677</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9404498400150574</v>
+        <v>0.915717078984667</v>
       </c>
     </row>
   </sheetData>
